--- a/1- Documents ESGI/SuiviRendus.xlsx
+++ b/1- Documents ESGI/SuiviRendus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="21270" windowHeight="11895"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="21270" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="A6:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1- Documents ESGI/SuiviRendus.xlsx
+++ b/1- Documents ESGI/SuiviRendus.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="21270" windowHeight="11895"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="21270" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>Date de rendu</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Commentaires</t>
   </si>
   <si>
-    <t>En attente du client</t>
-  </si>
-  <si>
     <t>A voir avec le client soit conf call, soit rendez-vous physique</t>
   </si>
   <si>
@@ -150,13 +147,37 @@
   </si>
   <si>
     <t>Vérifier que tout fichier programmé devra comporter le nom du ou des développeurs au début du fichier source</t>
+  </si>
+  <si>
+    <t>En retard</t>
+  </si>
+  <si>
+    <t>Team Collaborator</t>
+  </si>
+  <si>
+    <t>Damien</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Après le modèle de gestion</t>
+  </si>
+  <si>
+    <t>Guillaume</t>
+  </si>
+  <si>
+    <t>Ivan &amp; Guillaume</t>
+  </si>
+  <si>
+    <t>Ivan &amp; Client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +214,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +280,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -276,14 +315,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -332,10 +387,26 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -622,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="A6:F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,8 +708,8 @@
     <col min="7" max="16" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -657,60 +728,70 @@
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22">
         <v>42348</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22">
         <v>42348</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="22">
         <v>42348</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
@@ -723,10 +804,15 @@
       <c r="D6" s="6">
         <v>42373</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="8"/>
+      <c r="F6" s="6">
+        <v>42357</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
@@ -740,9 +826,14 @@
         <v>42373</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="6">
+        <v>42373</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>20</v>
       </c>
@@ -755,10 +846,15 @@
       <c r="D8" s="6">
         <v>42373</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="8"/>
+      <c r="F8" s="6">
+        <v>42357</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>20</v>
       </c>
@@ -771,10 +867,15 @@
       <c r="D9" s="6">
         <v>42373</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="8"/>
+      <c r="F9" s="6">
+        <v>42359</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -789,8 +890,11 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
@@ -804,9 +908,14 @@
         <v>42373</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -820,9 +929,14 @@
         <v>42373</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="6">
+        <v>42373</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>21</v>
       </c>
@@ -837,8 +951,11 @@
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>23</v>
       </c>
@@ -853,8 +970,9 @@
       </c>
       <c r="E14" s="14"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -869,8 +987,9 @@
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
@@ -885,13 +1004,14 @@
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>5</v>
@@ -901,8 +1021,9 @@
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>23</v>
       </c>
@@ -917,13 +1038,14 @@
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>5</v>
@@ -933,147 +1055,156 @@
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="B21" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1212,7 @@
     <row r="37" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A2:F2"/>
+  <autoFilter ref="A2:G27"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/1- Documents ESGI/SuiviRendus.xlsx
+++ b/1- Documents ESGI/SuiviRendus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="21270" windowHeight="11895"/>
+    <workbookView minimized="1" xWindow="4590" yWindow="0" windowWidth="21270" windowHeight="11895"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,15 +214,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,11 +275,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,12 +319,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -390,23 +377,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Input" xfId="4" builtinId="20"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -695,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,13 +722,13 @@
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="22">
+      <c r="C3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="21">
         <v>42348</v>
       </c>
       <c r="E3" s="7"/>
@@ -755,13 +741,13 @@
       <c r="A4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="22">
+      <c r="C4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21">
         <v>42348</v>
       </c>
       <c r="E4" s="7"/>
@@ -776,16 +762,16 @@
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>42348</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
@@ -804,7 +790,7 @@
       <c r="D6" s="6">
         <v>42373</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="6">
         <v>42357</v>
       </c>
@@ -825,7 +811,7 @@
       <c r="D7" s="6">
         <v>42373</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="6">
         <v>42373</v>
       </c>
@@ -872,7 +858,7 @@
         <v>42359</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,11 +915,9 @@
         <v>42373</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="6">
-        <v>42373</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
